--- a/documentation-generator/vocab_csv/toms.xlsx
+++ b/documentation-generator/vocab_csv/toms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="556">
   <si>
     <t>Term</t>
   </si>
@@ -488,10 +488,10 @@
     <t>Deterministic Pseudonymisation</t>
   </si>
   <si>
-    <t>Pseudoanonymisation achieved through a deterministic function</t>
-  </si>
-  <si>
-    <t>dpv:Pseudoanonymisation</t>
+    <t>Pseudonymisation achieved through a deterministic function</t>
+  </si>
+  <si>
+    <t>dpv:Pseudonymisation</t>
   </si>
   <si>
     <r>
@@ -565,7 +565,7 @@
     <t>Document Randomised Pseudonymisation</t>
   </si>
   <si>
-    <t>Use of randomised pseudoanonymisation where the same elements are assigned different values in the same document or database</t>
+    <t>Use of randomised pseudonymisation where the same elements are assigned different values in the same document or database</t>
   </si>
   <si>
     <r>
@@ -596,10 +596,10 @@
     <t>Technical measures consisting of encryption</t>
   </si>
   <si>
-    <t>EncryptionInRest</t>
-  </si>
-  <si>
-    <t>Encryption in Rest</t>
+    <t>EncryptionAtRest</t>
+  </si>
+  <si>
+    <t>Encryption at Rest</t>
   </si>
   <si>
     <t>Encryption of data when being stored (persistent encryption)</t>
@@ -612,6 +612,15 @@
   </si>
   <si>
     <t>Encryption of data in transit e.g. when being transferred from one location to another, including sharing</t>
+  </si>
+  <si>
+    <t>EncryptionInUse</t>
+  </si>
+  <si>
+    <t>Encryption in Use</t>
+  </si>
+  <si>
+    <t>Encryption of data when it is being used</t>
   </si>
   <si>
     <t>EndToEndEncryption</t>
@@ -651,7 +660,7 @@
     <t>Fully Randomised Pseudonymisation</t>
   </si>
   <si>
-    <t>Use of randomised pseudoanonymisation where the same elements are assigned different values each time they occur</t>
+    <t>Use of randomised pseudonymisation where the same elements are assigned different values each time they occur</t>
   </si>
   <si>
     <r>
@@ -752,13 +761,13 @@
     <t>Security implemented over a mobile platform</t>
   </si>
   <si>
-    <t>MonotonicCounterPseudoanonymisation</t>
-  </si>
-  <si>
-    <t>Monotonic Counter Pseudoanonymisation</t>
-  </si>
-  <si>
-    <t>A simple pseudoanonymisation method where identifiers are substituted by a number chosen by a monotonic counter</t>
+    <t>MonotonicCounterPseudonymisation</t>
+  </si>
+  <si>
+    <t>Monotonic Counter Pseudonymisation</t>
+  </si>
+  <si>
+    <t>A simple pseudonymisation method where identifiers are substituted by a number chosen by a monotonic counter</t>
   </si>
   <si>
     <r>
@@ -911,16 +920,13 @@
     <t>Cryptographic methods that utilise quantum mechanical properties to perform cryptographic tasks</t>
   </si>
   <si>
-    <t>RNGPseudoanonymisation</t>
-  </si>
-  <si>
-    <t>RNG Pseudoanonymisation</t>
-  </si>
-  <si>
-    <t>A pseudoanonymisation method where identifiers are substituted by a number chosen by a Random Number Generator (RNG)</t>
-  </si>
-  <si>
-    <t>dpv:PseudoAnonymisation</t>
+    <t>RNGPseudonymisation</t>
+  </si>
+  <si>
+    <t>RNG Pseudonymisation</t>
+  </si>
+  <si>
+    <t>A pseudonymisation method where identifiers are substituted by a number chosen by a Random Number Generator (RNG)</t>
   </si>
   <si>
     <r>
@@ -1338,6 +1344,9 @@
   </si>
   <si>
     <t>ContractualTerms</t>
+  </si>
+  <si>
+    <t>Contractual Terms</t>
   </si>
   <si>
     <t>Contractual terms governing data handling within or with an entity</t>
@@ -2336,7 +2345,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -2393,6 +2402,18 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
       <border/>
@@ -9196,6 +9217,10 @@
       <c r="E4" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="23" t="s">
         <v>83</v>
       </c>
@@ -9214,6 +9239,19 @@
       <c r="O4" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
@@ -9579,9 +9617,15 @@
       <c r="E12" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="14">
         <v>44601.0</v>
       </c>
+      <c r="L12" s="13"/>
       <c r="M12" s="12" t="s">
         <v>116</v>
       </c>
@@ -9589,6 +9633,19 @@
         <v>46</v>
       </c>
       <c r="O12" s="25"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
@@ -10384,7 +10441,7 @@
       <c r="A29" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="21" t="s">
         <v>174</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -10496,22 +10553,14 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="K31" s="14">
-        <v>44790.0</v>
-      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="13"/>
       <c r="M31" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>79</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
@@ -10528,16 +10577,16 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="C32" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="D32" s="12" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>27</v>
@@ -10546,8 +10595,8 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="12" t="s">
-        <v>78</v>
+      <c r="J32" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="K32" s="14">
         <v>44790.0</v>
@@ -10587,7 +10636,7 @@
         <v>188</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>27</v>
@@ -10596,8 +10645,8 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="24" t="s">
-        <v>189</v>
+      <c r="J33" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K33" s="14">
         <v>44790.0</v>
@@ -10628,16 +10677,16 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="C34" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="D34" s="12" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>27</v>
@@ -10646,8 +10695,8 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="12" t="s">
-        <v>78</v>
+      <c r="J34" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="K34" s="14">
         <v>44790.0</v>
@@ -10687,7 +10736,7 @@
         <v>195</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>27</v>
@@ -10737,7 +10786,7 @@
         <v>198</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>27</v>
@@ -10746,8 +10795,8 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="24" t="s">
-        <v>199</v>
+      <c r="J36" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K36" s="14">
         <v>44790.0</v>
@@ -10778,16 +10827,16 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>202</v>
-      </c>
       <c r="D37" s="12" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>27</v>
@@ -10796,8 +10845,8 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="12" t="s">
-        <v>78</v>
+      <c r="J37" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="K37" s="14">
         <v>44790.0</v>
@@ -10837,7 +10886,7 @@
         <v>205</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>27</v>
@@ -10887,7 +10936,7 @@
         <v>208</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>27</v>
@@ -10937,7 +10986,7 @@
         <v>211</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>27</v>
@@ -10987,7 +11036,7 @@
         <v>214</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>27</v>
@@ -11037,7 +11086,7 @@
         <v>217</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>27</v>
@@ -11046,8 +11095,8 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="24" t="s">
-        <v>218</v>
+      <c r="J42" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K42" s="14">
         <v>44790.0</v>
@@ -11078,16 +11127,16 @@
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="C43" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="D43" s="12" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>27</v>
@@ -11096,15 +11145,17 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="12" t="s">
-        <v>78</v>
+      <c r="J43" s="24" t="s">
+        <v>221</v>
       </c>
       <c r="K43" s="14">
         <v>44790.0</v>
       </c>
-      <c r="L43" s="13"/>
+      <c r="L43" s="14">
+        <v>44847.0</v>
+      </c>
       <c r="M43" s="22" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="N43" s="12" t="s">
         <v>46</v>
@@ -11137,7 +11188,7 @@
         <v>224</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>27</v>
@@ -11146,8 +11197,8 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="24" t="s">
-        <v>225</v>
+      <c r="J44" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K44" s="14">
         <v>44790.0</v>
@@ -11178,13 +11229,13 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="C45" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>163</v>
@@ -11196,8 +11247,8 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="12" t="s">
-        <v>78</v>
+      <c r="J45" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="K45" s="14">
         <v>44790.0</v>
@@ -11287,7 +11338,7 @@
         <v>234</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>27</v>
@@ -11337,7 +11388,7 @@
         <v>237</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>27</v>
@@ -11387,7 +11438,7 @@
         <v>240</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>27</v>
@@ -11396,19 +11447,21 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="J49" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="K49" s="14">
-        <v>44727.0</v>
+        <v>44790.0</v>
       </c>
       <c r="L49" s="13"/>
-      <c r="M49" s="12" t="s">
+      <c r="M49" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
@@ -11426,16 +11479,16 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="D50" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>27</v>
@@ -11444,21 +11497,19 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="J50" s="13"/>
       <c r="K50" s="14">
-        <v>44790.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L50" s="13"/>
-      <c r="M50" s="22" t="s">
+      <c r="M50" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -11476,16 +11527,16 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D51" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>27</v>
@@ -11535,7 +11586,7 @@
         <v>251</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>27</v>
@@ -11544,8 +11595,8 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="24" t="s">
-        <v>252</v>
+      <c r="J52" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K52" s="14">
         <v>44790.0</v>
@@ -11576,7 +11627,7 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>253</v>
@@ -11585,7 +11636,7 @@
         <v>254</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>27</v>
@@ -11594,21 +11645,21 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="23" t="s">
-        <v>83</v>
+      <c r="J53" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="K53" s="14">
-        <v>43560.0</v>
-      </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="12" t="s">
+        <v>44790.0</v>
+      </c>
+      <c r="L53" s="13"/>
+      <c r="M53" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
@@ -11626,7 +11677,7 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>256</v>
@@ -11635,7 +11686,7 @@
         <v>257</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>27</v>
@@ -11644,21 +11695,21 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="12" t="s">
-        <v>78</v>
+      <c r="J54" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="K54" s="14">
-        <v>44790.0</v>
-      </c>
-      <c r="L54" s="13"/>
-      <c r="M54" s="22" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L54" s="14"/>
+      <c r="M54" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O54" s="15" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="O54" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
@@ -11685,7 +11736,7 @@
         <v>260</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>27</v>
@@ -11694,8 +11745,8 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="24" t="s">
-        <v>262</v>
+      <c r="J55" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K55" s="14">
         <v>44790.0</v>
@@ -11726,16 +11777,16 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>265</v>
-      </c>
       <c r="D56" s="12" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>27</v>
@@ -11745,14 +11796,16 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K56" s="14">
         <v>44790.0</v>
       </c>
-      <c r="L56" s="13"/>
+      <c r="L56" s="14">
+        <v>44847.0</v>
+      </c>
       <c r="M56" s="22" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="N56" s="12" t="s">
         <v>46</v>
@@ -11776,16 +11829,16 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>269</v>
-      </c>
       <c r="D57" s="12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>27</v>
@@ -11794,8 +11847,8 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="12" t="s">
-        <v>78</v>
+      <c r="J57" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="K57" s="14">
         <v>44790.0</v>
@@ -11826,16 +11879,16 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="C58" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>272</v>
-      </c>
       <c r="D58" s="12" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>27</v>
@@ -11844,18 +11897,22 @@
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
+      <c r="J58" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="K58" s="14">
-        <v>44797.0</v>
+        <v>44790.0</v>
       </c>
       <c r="L58" s="13"/>
-      <c r="M58" s="12" t="s">
+      <c r="M58" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N58" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="13"/>
+      <c r="O58" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
@@ -11871,115 +11928,111 @@
       <c r="AB58" s="13"/>
     </row>
     <row r="59">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="C59" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="C59" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>112</v>
+      <c r="D59" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="30">
-        <v>44139.0</v>
-      </c>
-      <c r="L59" s="30"/>
-      <c r="M59" s="22" t="s">
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="14">
+        <v>44797.0</v>
+      </c>
+      <c r="L59" s="13"/>
+      <c r="M59" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="22" t="s">
+      <c r="N59" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="O59" s="31" t="s">
+      <c r="C60" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>245</v>
+      <c r="D60" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K60" s="14">
-        <v>44790.0</v>
-      </c>
-      <c r="L60" s="13"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="30">
+        <v>44139.0</v>
+      </c>
+      <c r="L60" s="30"/>
       <c r="M60" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N60" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="13"/>
+      <c r="N60" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="O60" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>283</v>
-      </c>
       <c r="D61" s="12" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>27</v>
@@ -11988,8 +12041,8 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="24" t="s">
-        <v>284</v>
+      <c r="J61" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K61" s="14">
         <v>44790.0</v>
@@ -12020,16 +12073,16 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>287</v>
-      </c>
       <c r="D62" s="12" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>27</v>
@@ -12038,8 +12091,8 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
-      <c r="J62" s="12" t="s">
-        <v>78</v>
+      <c r="J62" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="K62" s="14">
         <v>44790.0</v>
@@ -12070,16 +12123,16 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="C63" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>290</v>
-      </c>
       <c r="D63" s="12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>27</v>
@@ -12088,8 +12141,8 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="24" t="s">
-        <v>291</v>
+      <c r="J63" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K63" s="14">
         <v>44790.0</v>
@@ -12120,16 +12173,16 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>294</v>
-      </c>
       <c r="D64" s="12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>27</v>
@@ -12138,8 +12191,8 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
-      <c r="J64" s="12" t="s">
-        <v>78</v>
+      <c r="J64" s="24" t="s">
+        <v>293</v>
       </c>
       <c r="K64" s="14">
         <v>44790.0</v>
@@ -12170,16 +12223,16 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="C65" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>297</v>
-      </c>
       <c r="D65" s="12" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>27</v>
@@ -12188,8 +12241,8 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="24" t="s">
-        <v>298</v>
+      <c r="J65" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K65" s="14">
         <v>44790.0</v>
@@ -12220,13 +12273,13 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>163</v>
@@ -12238,8 +12291,8 @@
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
-      <c r="J66" s="12" t="s">
-        <v>78</v>
+      <c r="J66" s="24" t="s">
+        <v>300</v>
       </c>
       <c r="K66" s="14">
         <v>44790.0</v>
@@ -12270,13 +12323,13 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="C67" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>163</v>
@@ -12320,13 +12373,13 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="C68" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>163</v>
@@ -12370,13 +12423,13 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B69" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="C69" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>163</v>
@@ -12420,13 +12473,13 @@
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="C70" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>163</v>
@@ -12470,16 +12523,16 @@
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>316</v>
-      </c>
       <c r="D71" s="12" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>27</v>
@@ -12488,8 +12541,8 @@
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
-      <c r="J71" s="24" t="s">
-        <v>317</v>
+      <c r="J71" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K71" s="14">
         <v>44790.0</v>
@@ -12519,7 +12572,54 @@
       <c r="AB71" s="13"/>
     </row>
     <row r="72">
-      <c r="B72" s="18"/>
+      <c r="A72" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="K72" s="14">
+        <v>44790.0</v>
+      </c>
+      <c r="L72" s="13"/>
+      <c r="M72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O72" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
     </row>
     <row r="73">
       <c r="B73" s="18"/>
@@ -15128,20 +15228,28 @@
     <row r="941">
       <c r="B941" s="18"/>
     </row>
+    <row r="942">
+      <c r="B942" s="18"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J53:J62">
+  <conditionalFormatting sqref="A2:AB401">
     <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$M53="modified"</formula>
+      <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB199">
+  <conditionalFormatting sqref="A2:AB200">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B47 C1:C59 D1:D62 G1:I59 J1:J62 K1:O70 P1:AB59 E2:E71 F2:F59 A49:A53 B49:B59 A58:A59 D64:D69 D71">
+  <conditionalFormatting sqref="A1:B48 C1:C60 D1:D63 G1:I60 J1:J63 K1:O71 P1:AB60 E2:E72 F2:F60 A50:A54 B50:B60 A59:A60 D65:D70 D72">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>$M1="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AB401">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -15179,59 +15287,59 @@
     <hyperlink r:id="rId32" ref="O28"/>
     <hyperlink r:id="rId33" ref="O29"/>
     <hyperlink r:id="rId34" ref="O30"/>
-    <hyperlink r:id="rId35" ref="J31"/>
-    <hyperlink r:id="rId36" ref="O31"/>
-    <hyperlink r:id="rId37" ref="O32"/>
-    <hyperlink r:id="rId38" ref="J33"/>
-    <hyperlink r:id="rId39" ref="O33"/>
-    <hyperlink r:id="rId40" ref="O34"/>
-    <hyperlink r:id="rId41" ref="O35"/>
-    <hyperlink r:id="rId42" ref="J36"/>
-    <hyperlink r:id="rId43" ref="O36"/>
-    <hyperlink r:id="rId44" ref="O37"/>
-    <hyperlink r:id="rId45" ref="O38"/>
-    <hyperlink r:id="rId46" ref="O39"/>
-    <hyperlink r:id="rId47" ref="O40"/>
-    <hyperlink r:id="rId48" ref="O41"/>
-    <hyperlink r:id="rId49" ref="J42"/>
-    <hyperlink r:id="rId50" ref="O42"/>
-    <hyperlink r:id="rId51" ref="O43"/>
-    <hyperlink r:id="rId52" ref="J44"/>
-    <hyperlink r:id="rId53" ref="O44"/>
-    <hyperlink r:id="rId54" ref="O45"/>
-    <hyperlink r:id="rId55" ref="O46"/>
-    <hyperlink r:id="rId56" ref="O47"/>
-    <hyperlink r:id="rId57" ref="O48"/>
-    <hyperlink r:id="rId58" ref="O49"/>
-    <hyperlink r:id="rId59" ref="O50"/>
-    <hyperlink r:id="rId60" ref="O51"/>
-    <hyperlink r:id="rId61" ref="J52"/>
-    <hyperlink r:id="rId62" ref="O52"/>
-    <hyperlink r:id="rId63" ref="J53"/>
-    <hyperlink r:id="rId64" ref="O53"/>
-    <hyperlink r:id="rId65" ref="O54"/>
-    <hyperlink r:id="rId66" ref="J55"/>
-    <hyperlink r:id="rId67" ref="O55"/>
-    <hyperlink r:id="rId68" ref="J56"/>
-    <hyperlink r:id="rId69" ref="O56"/>
-    <hyperlink r:id="rId70" ref="O57"/>
-    <hyperlink r:id="rId71" ref="O59"/>
-    <hyperlink r:id="rId72" ref="O60"/>
-    <hyperlink r:id="rId73" ref="J61"/>
-    <hyperlink r:id="rId74" ref="O61"/>
-    <hyperlink r:id="rId75" ref="O62"/>
-    <hyperlink r:id="rId76" ref="J63"/>
-    <hyperlink r:id="rId77" ref="O63"/>
-    <hyperlink r:id="rId78" ref="O64"/>
-    <hyperlink r:id="rId79" ref="J65"/>
-    <hyperlink r:id="rId80" ref="O65"/>
-    <hyperlink r:id="rId81" ref="O66"/>
-    <hyperlink r:id="rId82" ref="O67"/>
-    <hyperlink r:id="rId83" ref="O68"/>
-    <hyperlink r:id="rId84" ref="O69"/>
-    <hyperlink r:id="rId85" ref="O70"/>
-    <hyperlink r:id="rId86" ref="J71"/>
-    <hyperlink r:id="rId87" ref="O71"/>
+    <hyperlink r:id="rId35" ref="J32"/>
+    <hyperlink r:id="rId36" ref="O32"/>
+    <hyperlink r:id="rId37" ref="O33"/>
+    <hyperlink r:id="rId38" ref="J34"/>
+    <hyperlink r:id="rId39" ref="O34"/>
+    <hyperlink r:id="rId40" ref="O35"/>
+    <hyperlink r:id="rId41" ref="O36"/>
+    <hyperlink r:id="rId42" ref="J37"/>
+    <hyperlink r:id="rId43" ref="O37"/>
+    <hyperlink r:id="rId44" ref="O38"/>
+    <hyperlink r:id="rId45" ref="O39"/>
+    <hyperlink r:id="rId46" ref="O40"/>
+    <hyperlink r:id="rId47" ref="O41"/>
+    <hyperlink r:id="rId48" ref="O42"/>
+    <hyperlink r:id="rId49" ref="J43"/>
+    <hyperlink r:id="rId50" ref="O43"/>
+    <hyperlink r:id="rId51" ref="O44"/>
+    <hyperlink r:id="rId52" ref="J45"/>
+    <hyperlink r:id="rId53" ref="O45"/>
+    <hyperlink r:id="rId54" ref="O46"/>
+    <hyperlink r:id="rId55" ref="O47"/>
+    <hyperlink r:id="rId56" ref="O48"/>
+    <hyperlink r:id="rId57" ref="O49"/>
+    <hyperlink r:id="rId58" ref="O50"/>
+    <hyperlink r:id="rId59" ref="O51"/>
+    <hyperlink r:id="rId60" ref="O52"/>
+    <hyperlink r:id="rId61" ref="J53"/>
+    <hyperlink r:id="rId62" ref="O53"/>
+    <hyperlink r:id="rId63" ref="J54"/>
+    <hyperlink r:id="rId64" ref="O54"/>
+    <hyperlink r:id="rId65" ref="O55"/>
+    <hyperlink r:id="rId66" ref="J56"/>
+    <hyperlink r:id="rId67" ref="O56"/>
+    <hyperlink r:id="rId68" ref="J57"/>
+    <hyperlink r:id="rId69" ref="O57"/>
+    <hyperlink r:id="rId70" ref="O58"/>
+    <hyperlink r:id="rId71" ref="O60"/>
+    <hyperlink r:id="rId72" ref="O61"/>
+    <hyperlink r:id="rId73" ref="J62"/>
+    <hyperlink r:id="rId74" ref="O62"/>
+    <hyperlink r:id="rId75" ref="O63"/>
+    <hyperlink r:id="rId76" ref="J64"/>
+    <hyperlink r:id="rId77" ref="O64"/>
+    <hyperlink r:id="rId78" ref="O65"/>
+    <hyperlink r:id="rId79" ref="J66"/>
+    <hyperlink r:id="rId80" ref="O66"/>
+    <hyperlink r:id="rId81" ref="O67"/>
+    <hyperlink r:id="rId82" ref="O68"/>
+    <hyperlink r:id="rId83" ref="O69"/>
+    <hyperlink r:id="rId84" ref="O70"/>
+    <hyperlink r:id="rId85" ref="O71"/>
+    <hyperlink r:id="rId86" ref="J72"/>
+    <hyperlink r:id="rId87" ref="O72"/>
   </hyperlinks>
   <drawing r:id="rId88"/>
 </worksheet>
@@ -15305,13 +15413,13 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>51</v>
@@ -15335,7 +15443,7 @@
         <v>46</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
@@ -15353,16 +15461,16 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>27</v>
@@ -15372,7 +15480,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="24" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K3" s="14">
         <v>44790.0</v>
@@ -15403,13 +15511,13 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>51</v>
@@ -15421,7 +15529,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="36" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="14">
@@ -15453,16 +15561,16 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>27</v>
@@ -15472,7 +15580,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="24" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K5" s="14">
         <v>44790.0</v>
@@ -15503,16 +15611,16 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
@@ -15551,13 +15659,13 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>51</v>
@@ -15599,16 +15707,16 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>27</v>
@@ -15647,16 +15755,16 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>27</v>
@@ -15666,7 +15774,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K9" s="14">
         <v>44790.0</v>
@@ -15697,16 +15805,16 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>27</v>
@@ -15745,16 +15853,16 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>27</v>
@@ -15793,13 +15901,13 @@
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>51</v>
@@ -15820,10 +15928,10 @@
         <v>20</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
@@ -15841,16 +15949,16 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>27</v>
@@ -15868,10 +15976,10 @@
         <v>20</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -15889,16 +15997,16 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>362</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>27</v>
@@ -15916,7 +16024,7 @@
         <v>20</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O14" s="17" t="s">
         <v>135</v>
@@ -15937,16 +16045,16 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>27</v>
@@ -15964,7 +16072,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O15" s="17" t="s">
         <v>135</v>
@@ -15985,16 +16093,16 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>27</v>
@@ -16033,16 +16141,16 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>27</v>
@@ -16060,7 +16168,7 @@
         <v>20</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O17" s="35" t="s">
         <v>56</v>
@@ -16081,16 +16189,16 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>27</v>
@@ -16129,16 +16237,16 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>27</v>
@@ -16148,7 +16256,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="24" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K19" s="14">
         <v>44790.0</v>
@@ -16179,16 +16287,16 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>27</v>
@@ -16229,16 +16337,16 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>27</v>
@@ -16247,7 +16355,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="12" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="14">
@@ -16258,7 +16366,7 @@
         <v>20</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O21" s="35" t="s">
         <v>56</v>
@@ -16279,16 +16387,16 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>27</v>
@@ -16309,7 +16417,7 @@
         <v>46</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -16327,16 +16435,16 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>27</v>
@@ -16346,7 +16454,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="24" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K23" s="14">
         <v>44790.0</v>
@@ -16377,16 +16485,16 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>27</v>
@@ -16404,10 +16512,10 @@
         <v>20</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -16425,16 +16533,16 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>27</v>
@@ -16473,16 +16581,16 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>27</v>
@@ -16492,7 +16600,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="24" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K26" s="14">
         <v>44790.0</v>
@@ -16523,16 +16631,16 @@
     </row>
     <row r="27">
       <c r="A27" s="25" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>27</v>
@@ -16541,7 +16649,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="25" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="30">
@@ -16552,10 +16660,10 @@
         <v>20</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
@@ -16573,16 +16681,16 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>27</v>
@@ -16623,16 +16731,16 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>27</v>
@@ -16642,7 +16750,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="24" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K29" s="14">
         <v>44790.0</v>
@@ -16673,13 +16781,13 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>51</v>
@@ -16692,7 +16800,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="24" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K30" s="14">
         <v>44790.0</v>
@@ -16723,13 +16831,13 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>51</v>
@@ -16771,16 +16879,16 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>27</v>
@@ -16821,16 +16929,16 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>27</v>
@@ -16848,10 +16956,10 @@
         <v>20</v>
       </c>
       <c r="N33" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
@@ -16869,16 +16977,16 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>27</v>
@@ -16888,7 +16996,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="24" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K34" s="14">
         <v>44790.0</v>
@@ -16919,16 +17027,16 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>27</v>
@@ -16938,7 +17046,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="24" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K35" s="14">
         <v>44790.0</v>
@@ -16969,13 +17077,13 @@
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>55</v>
@@ -16988,7 +17096,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="24" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K36" s="14">
         <v>44790.0</v>
@@ -17019,16 +17127,16 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>27</v>
@@ -17046,7 +17154,7 @@
         <v>20</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O37" s="35" t="s">
         <v>56</v>
@@ -17067,13 +17175,13 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>51</v>
@@ -17115,16 +17223,16 @@
     </row>
     <row r="39">
       <c r="A39" s="25" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>27</v>
@@ -17142,10 +17250,10 @@
         <v>20</v>
       </c>
       <c r="N39" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P39" s="33"/>
       <c r="Q39" s="33"/>
@@ -17163,16 +17271,16 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>27</v>
@@ -17182,7 +17290,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="24" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K40" s="14">
         <v>44790.0</v>
@@ -17213,16 +17321,16 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>27</v>
@@ -17232,7 +17340,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="24" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K41" s="14">
         <v>44790.0</v>
@@ -17263,16 +17371,16 @@
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>27</v>
@@ -17311,13 +17419,13 @@
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>51</v>
@@ -17338,10 +17446,10 @@
         <v>20</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O43" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
@@ -17359,16 +17467,16 @@
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>27</v>
@@ -17386,10 +17494,10 @@
         <v>20</v>
       </c>
       <c r="N44" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
@@ -17407,13 +17515,13 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>51</v>
@@ -17434,10 +17542,10 @@
         <v>20</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -17455,16 +17563,16 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>27</v>
@@ -17503,13 +17611,13 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>51</v>
@@ -17551,13 +17659,13 @@
     </row>
     <row r="48">
       <c r="A48" s="25" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>68</v>
@@ -17578,10 +17686,10 @@
         <v>20</v>
       </c>
       <c r="N48" s="22" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
@@ -17599,16 +17707,16 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>27</v>
@@ -17649,13 +17757,13 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>51</v>
@@ -17676,10 +17784,10 @@
         <v>20</v>
       </c>
       <c r="N50" s="39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -17697,16 +17805,16 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>27</v>
@@ -17715,7 +17823,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="39" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="14">
@@ -17726,10 +17834,10 @@
         <v>20</v>
       </c>
       <c r="N51" s="39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
@@ -17747,13 +17855,13 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>51</v>
@@ -17795,16 +17903,16 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>27</v>
@@ -17814,7 +17922,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K53" s="14">
         <v>44791.0</v>
@@ -17843,16 +17951,16 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>27</v>
@@ -17862,7 +17970,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K54" s="14">
         <v>44791.0</v>
@@ -17891,13 +17999,13 @@
     </row>
     <row r="55">
       <c r="A55" s="41" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>51</v>
@@ -17909,7 +18017,7 @@
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="25" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="34">
@@ -17920,10 +18028,10 @@
         <v>20</v>
       </c>
       <c r="N55" s="22" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="O55" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P55" s="33"/>
       <c r="Q55" s="33"/>
@@ -17941,16 +18049,16 @@
     </row>
     <row r="56">
       <c r="A56" s="25" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>27</v>
@@ -17968,10 +18076,10 @@
         <v>20</v>
       </c>
       <c r="N56" s="22" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="O56" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P56" s="33"/>
       <c r="Q56" s="33"/>
@@ -17989,16 +18097,16 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>27</v>
@@ -18037,16 +18145,16 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>27</v>
@@ -18056,7 +18164,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="24" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K58" s="14">
         <v>44790.0</v>
@@ -18087,16 +18195,16 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>27</v>
@@ -18106,7 +18214,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="24" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K59" s="14">
         <v>44790.0</v>
@@ -18137,13 +18245,13 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>51</v>
@@ -18183,16 +18291,16 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>27</v>
@@ -18202,7 +18310,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="24" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K61" s="14">
         <v>44790.0</v>
@@ -18233,13 +18341,13 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>51</v>
@@ -18281,16 +18389,16 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>27</v>
@@ -18308,7 +18416,7 @@
         <v>20</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O63" s="35" t="s">
         <v>56</v>
@@ -18329,16 +18437,16 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>27</v>
@@ -18377,16 +18485,16 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>27</v>
@@ -18396,7 +18504,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="24" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K65" s="14">
         <v>44790.0</v>
@@ -18427,16 +18535,16 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>27</v>
@@ -18446,7 +18554,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="24" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K66" s="14">
         <v>44790.0</v>

--- a/documentation-generator/vocab_csv/toms.xlsx
+++ b/documentation-generator/vocab_csv/toms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="566">
   <si>
     <t>Term</t>
   </si>
@@ -1334,6 +1334,18 @@
     <t>Harshvardhan J. Pandit, Georg P Krog</t>
   </si>
   <si>
+    <t>ConsultationWithDataSubjectRepresentative</t>
+  </si>
+  <si>
+    <t>Consultation with Data Subject Representative</t>
+  </si>
+  <si>
+    <t>Consultation with representative of data subject(s)</t>
+  </si>
+  <si>
+    <t>dpv:ConsultationWithDataSubject</t>
+  </si>
+  <si>
     <t>ConsultationWithDPO</t>
   </si>
   <si>
@@ -2043,6 +2055,24 @@
       </rPr>
       <t>https://www.enisa.europa.eu/publications/data-pseudonymisation-advanced-techniques-and-use-cases)</t>
     </r>
+  </si>
+  <si>
+    <t>ReviewProcedure</t>
+  </si>
+  <si>
+    <t>Review Procedure</t>
+  </si>
+  <si>
+    <t>A procedure or process that reviews the correctness and validity of other measures and processes</t>
+  </si>
+  <si>
+    <t>ReviewImpactAssessment</t>
+  </si>
+  <si>
+    <t>ReviewImpactAssessmentAdequacy</t>
+  </si>
+  <si>
+    <t>ReviewImpactAssessmentConformance</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2247,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2325,6 +2355,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -10554,12 +10587,16 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="14">
+        <v>44856.0</v>
+      </c>
       <c r="L31" s="13"/>
       <c r="M31" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
@@ -16054,7 +16091,7 @@
         <v>371</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>27</v>
@@ -16065,7 +16102,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="12"/>
       <c r="K15" s="14">
-        <v>44727.0</v>
+        <v>44856.0</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="12" t="s">
@@ -16074,9 +16111,7 @@
       <c r="N15" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="O15" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="O15" s="38"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
@@ -16093,16 +16128,16 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>27</v>
@@ -16113,17 +16148,17 @@
       <c r="I16" s="13"/>
       <c r="J16" s="12"/>
       <c r="K16" s="14">
-        <v>43560.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>28</v>
+        <v>368</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -16146,7 +16181,7 @@
       <c r="B17" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="37" t="s">
         <v>378</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -16159,19 +16194,19 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="14">
-        <v>44587.0</v>
-      </c>
-      <c r="L17" s="13"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L17" s="14"/>
       <c r="M17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -16189,16 +16224,16 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>27</v>
@@ -16209,17 +16244,17 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="14">
-        <v>44727.0</v>
+        <v>44587.0</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>135</v>
+        <v>384</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -16239,7 +16274,7 @@
       <c r="A19" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="12" t="s">
         <v>386</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -16255,21 +16290,19 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="24" t="s">
-        <v>389</v>
-      </c>
+      <c r="J19" s="13"/>
       <c r="K19" s="14">
-        <v>44790.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L19" s="13"/>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -16287,16 +16320,16 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>27</v>
@@ -16305,8 +16338,8 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="12" t="s">
-        <v>78</v>
+      <c r="J20" s="24" t="s">
+        <v>393</v>
       </c>
       <c r="K20" s="14">
         <v>44790.0</v>
@@ -16346,7 +16379,7 @@
         <v>396</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>27</v>
@@ -16354,22 +16387,22 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="J21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="K21" s="14">
-        <v>44587.0</v>
+        <v>44790.0</v>
       </c>
       <c r="L21" s="13"/>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
@@ -16396,7 +16429,7 @@
         <v>400</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>27</v>
@@ -16404,20 +16437,22 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="I22" s="12" t="s">
+        <v>401</v>
+      </c>
       <c r="J22" s="13"/>
       <c r="K22" s="14">
-        <v>44447.0</v>
+        <v>44587.0</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>46</v>
+        <v>384</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>322</v>
+        <v>56</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -16444,7 +16479,7 @@
         <v>404</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>27</v>
@@ -16453,21 +16488,19 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="24" t="s">
-        <v>405</v>
-      </c>
+      <c r="J23" s="13"/>
       <c r="K23" s="14">
-        <v>44790.0</v>
+        <v>44447.0</v>
       </c>
       <c r="L23" s="13"/>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="15" t="s">
-        <v>79</v>
+      <c r="O23" s="35" t="s">
+        <v>322</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -16493,8 +16526,8 @@
       <c r="C24" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>409</v>
+      <c r="D24" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>27</v>
@@ -16503,19 +16536,21 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="12"/>
+      <c r="J24" s="24" t="s">
+        <v>409</v>
+      </c>
       <c r="K24" s="14">
-        <v>44447.0</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="12" t="s">
+        <v>44790.0</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="O24" s="35" t="s">
-        <v>322</v>
+      <c r="N24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -16535,14 +16570,14 @@
       <c r="A25" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="21" t="s">
         <v>411</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>346</v>
+      <c r="D25" s="25" t="s">
+        <v>413</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>27</v>
@@ -16553,17 +16588,17 @@
       <c r="I25" s="13"/>
       <c r="J25" s="12"/>
       <c r="K25" s="14">
-        <v>43560.0</v>
+        <v>44447.0</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>22</v>
+      <c r="N25" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="O25" s="35" t="s">
+        <v>322</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -16581,16 +16616,16 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B26" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="16" t="s">
         <v>415</v>
       </c>
+      <c r="C26" s="12" t="s">
+        <v>416</v>
+      </c>
       <c r="D26" s="12" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>27</v>
@@ -16599,21 +16634,19 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="24" t="s">
-        <v>416</v>
-      </c>
+      <c r="J26" s="12"/>
       <c r="K26" s="14">
-        <v>44790.0</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="22" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -16630,117 +16663,117 @@
       <c r="AB26" s="13"/>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>409</v>
+      <c r="D27" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="25" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="30">
-        <v>44139.0</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="25" t="s">
+      <c r="K27" s="14">
+        <v>44790.0</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="O27" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
+      <c r="N27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>393</v>
+      <c r="D28" s="25" t="s">
+        <v>413</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="14">
-        <v>44790.0</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="22" t="s">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="30">
+        <v>44139.0</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
+      <c r="N28" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="O28" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>27</v>
@@ -16749,8 +16782,8 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="24" t="s">
-        <v>428</v>
+      <c r="J29" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="K29" s="14">
         <v>44790.0</v>
@@ -16781,16 +16814,16 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>431</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>27</v>
@@ -16833,11 +16866,11 @@
       <c r="A31" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>433</v>
+      <c r="B31" s="21" t="s">
+        <v>434</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>51</v>
@@ -16849,19 +16882,21 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="12"/>
+      <c r="J31" s="24" t="s">
+        <v>436</v>
+      </c>
       <c r="K31" s="14">
-        <v>43560.0</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="12" t="s">
+        <v>44790.0</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
@@ -16879,16 +16914,16 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>437</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>384</v>
+        <v>51</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>27</v>
@@ -16897,21 +16932,19 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="J32" s="12"/>
       <c r="K32" s="14">
-        <v>44790.0</v>
-      </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="22" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="M32" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
@@ -16929,16 +16962,16 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>27</v>
@@ -16947,19 +16980,21 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="30">
-        <v>44139.0</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="12" t="s">
+      <c r="J33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="14">
+        <v>44790.0</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="22" t="s">
-        <v>278</v>
+      <c r="N33" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
@@ -16977,16 +17012,16 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C34" s="38" t="s">
         <v>443</v>
       </c>
+      <c r="C34" s="12" t="s">
+        <v>444</v>
+      </c>
       <c r="D34" s="12" t="s">
-        <v>326</v>
+        <v>431</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>27</v>
@@ -16995,21 +17030,19 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="K34" s="14">
-        <v>44790.0</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="22" t="s">
+      <c r="J34" s="12"/>
+      <c r="K34" s="30">
+        <v>44139.0</v>
+      </c>
+      <c r="L34" s="14"/>
+      <c r="M34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="12" t="s">
-        <v>46</v>
+      <c r="N34" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -17032,7 +17065,7 @@
       <c r="B35" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="39" t="s">
         <v>447</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -17086,7 +17119,7 @@
         <v>451</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>27</v>
@@ -17136,7 +17169,7 @@
         <v>455</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>379</v>
+        <v>55</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>27</v>
@@ -17145,19 +17178,21 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="J37" s="24" t="s">
+        <v>456</v>
+      </c>
       <c r="K37" s="14">
-        <v>44587.0</v>
+        <v>44790.0</v>
       </c>
       <c r="L37" s="13"/>
-      <c r="M37" s="12" t="s">
+      <c r="M37" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="O37" s="35" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
@@ -17175,16 +17210,16 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B38" s="16" t="s">
         <v>457</v>
       </c>
+      <c r="B38" s="21" t="s">
+        <v>458</v>
+      </c>
       <c r="C38" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>27</v>
@@ -17193,19 +17228,19 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="12"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="14">
-        <v>43560.0</v>
-      </c>
-      <c r="L38" s="14"/>
+        <v>44587.0</v>
+      </c>
+      <c r="L38" s="13"/>
       <c r="M38" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>22</v>
+        <v>384</v>
+      </c>
+      <c r="O38" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -17222,102 +17257,100 @@
       <c r="AB38" s="13"/>
     </row>
     <row r="39">
-      <c r="A39" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>427</v>
+      <c r="C39" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="34">
-        <v>44447.0</v>
+      <c r="K39" s="14">
+        <v>43560.0</v>
       </c>
       <c r="L39" s="14"/>
-      <c r="M39" s="25" t="s">
+      <c r="M39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="O39" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
+      <c r="N39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
     </row>
     <row r="40">
-      <c r="A40" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="B40" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>326</v>
+      <c r="C40" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>431</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="K40" s="14">
-        <v>44790.0</v>
-      </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="22" t="s">
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="34">
+        <v>44447.0</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
+      <c r="N40" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
@@ -17380,7 +17413,7 @@
         <v>472</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>27</v>
@@ -17389,19 +17422,21 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="12"/>
+      <c r="J42" s="24" t="s">
+        <v>473</v>
+      </c>
       <c r="K42" s="14">
-        <v>43560.0</v>
-      </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="12" t="s">
+        <v>44790.0</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
@@ -17418,17 +17453,17 @@
       <c r="AB42" s="13"/>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>474</v>
       </c>
+      <c r="B43" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>476</v>
+      </c>
       <c r="D43" s="12" t="s">
-        <v>51</v>
+        <v>379</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>27</v>
@@ -17437,19 +17472,19 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="J43" s="12"/>
       <c r="K43" s="14">
-        <v>44447.0</v>
-      </c>
-      <c r="L43" s="13"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L43" s="14"/>
       <c r="M43" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="O43" s="35" t="s">
-        <v>322</v>
+        <v>28</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
@@ -17466,17 +17501,17 @@
       <c r="AB43" s="13"/>
     </row>
     <row r="44">
-      <c r="A44" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>409</v>
+      <c r="D44" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>27</v>
@@ -17485,19 +17520,19 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="30">
-        <v>44139.0</v>
-      </c>
-      <c r="L44" s="14"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14">
+        <v>44447.0</v>
+      </c>
+      <c r="L44" s="13"/>
       <c r="M44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>279</v>
+      <c r="N44" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="O44" s="35" t="s">
+        <v>322</v>
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
@@ -17514,17 +17549,17 @@
       <c r="AB44" s="13"/>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="C45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>51</v>
+      <c r="B45" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>413</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>27</v>
@@ -17533,19 +17568,19 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="14">
-        <v>44447.0</v>
-      </c>
-      <c r="L45" s="13"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="30">
+        <v>44139.0</v>
+      </c>
+      <c r="L45" s="14"/>
       <c r="M45" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="O45" s="35" t="s">
-        <v>322</v>
+      <c r="N45" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -17562,17 +17597,17 @@
       <c r="AB45" s="13"/>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>483</v>
       </c>
+      <c r="B46" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>484</v>
+      </c>
       <c r="D46" s="12" t="s">
-        <v>346</v>
+        <v>51</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>27</v>
@@ -17581,19 +17616,19 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="12"/>
+      <c r="J46" s="13"/>
       <c r="K46" s="14">
-        <v>43560.0</v>
-      </c>
-      <c r="L46" s="14"/>
+        <v>44447.0</v>
+      </c>
+      <c r="L46" s="13"/>
       <c r="M46" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O46" s="17" t="s">
-        <v>22</v>
+        <v>479</v>
+      </c>
+      <c r="O46" s="35" t="s">
+        <v>322</v>
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -17611,16 +17646,16 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>51</v>
+        <v>346</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>27</v>
@@ -17628,7 +17663,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="37"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="12"/>
       <c r="K47" s="14">
         <v>43560.0</v>
@@ -17658,115 +17693,113 @@
       <c r="AB47" s="13"/>
     </row>
     <row r="48">
-      <c r="A48" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="B48" s="32" t="s">
+      <c r="A48" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="B48" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>68</v>
+      <c r="C48" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="37"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="34">
-        <v>44447.0</v>
+      <c r="K48" s="14">
+        <v>43560.0</v>
       </c>
       <c r="L48" s="14"/>
-      <c r="M48" s="25" t="s">
+      <c r="M48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="O48" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
+      <c r="N48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>393</v>
+      <c r="D49" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K49" s="14">
-        <v>44790.0</v>
-      </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="22" t="s">
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="34">
+        <v>44447.0</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
+      <c r="N49" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="O49" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>51</v>
+        <v>397</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>27</v>
@@ -17775,19 +17808,21 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="J50" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="K50" s="14">
-        <v>44447.0</v>
+        <v>44790.0</v>
       </c>
       <c r="L50" s="13"/>
-      <c r="M50" s="12" t="s">
+      <c r="M50" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="O50" s="35" t="s">
-        <v>322</v>
+      <c r="N50" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -17805,16 +17840,16 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="B51" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="B51" s="21" t="s">
         <v>499</v>
       </c>
+      <c r="C51" s="12" t="s">
+        <v>500</v>
+      </c>
       <c r="D51" s="12" t="s">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>27</v>
@@ -17822,9 +17857,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="39" t="s">
-        <v>501</v>
-      </c>
+      <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="14">
         <v>44447.0</v>
@@ -17833,7 +17866,7 @@
       <c r="M51" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="39" t="s">
+      <c r="N51" s="40" t="s">
         <v>278</v>
       </c>
       <c r="O51" s="35" t="s">
@@ -17855,16 +17888,16 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B52" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="C52" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="D52" s="12" t="s">
         <v>504</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>27</v>
@@ -17872,20 +17905,22 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="12"/>
+      <c r="I52" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="J52" s="13"/>
       <c r="K52" s="14">
-        <v>43560.0</v>
-      </c>
-      <c r="L52" s="14"/>
+        <v>44447.0</v>
+      </c>
+      <c r="L52" s="13"/>
       <c r="M52" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O52" s="17" t="s">
-        <v>22</v>
+      <c r="N52" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="O52" s="35" t="s">
+        <v>322</v>
       </c>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
@@ -17903,16 +17938,16 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="B53" s="21" t="s">
         <v>506</v>
       </c>
+      <c r="B53" s="16" t="s">
+        <v>507</v>
+      </c>
       <c r="C53" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>335</v>
+        <v>51</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>27</v>
@@ -17920,21 +17955,21 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="12" t="s">
-        <v>508</v>
-      </c>
+      <c r="I53" s="37"/>
+      <c r="J53" s="12"/>
       <c r="K53" s="14">
-        <v>44791.0</v>
-      </c>
-      <c r="L53" s="13"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L53" s="14"/>
       <c r="M53" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O53" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
@@ -17960,7 +17995,7 @@
         <v>511</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>512</v>
+        <v>335</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>27</v>
@@ -17970,7 +18005,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="12" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K54" s="14">
         <v>44791.0</v>
@@ -17998,67 +18033,65 @@
       <c r="AB54" s="13"/>
     </row>
     <row r="55">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="42" t="s">
-        <v>513</v>
-      </c>
-      <c r="C55" s="25" t="s">
+      <c r="B55" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>51</v>
+      <c r="C55" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>516</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="34">
-        <v>44461.0</v>
-      </c>
-      <c r="L55" s="44"/>
-      <c r="M55" s="25" t="s">
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="K55" s="14">
+        <v>44791.0</v>
+      </c>
+      <c r="L55" s="13"/>
+      <c r="M55" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="O55" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
+      <c r="N55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13"/>
     </row>
     <row r="56">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>519</v>
-      </c>
       <c r="D56" s="25" t="s">
-        <v>520</v>
+        <v>51</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>27</v>
@@ -18066,17 +18099,19 @@
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="12"/>
+      <c r="I56" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="J56" s="44"/>
       <c r="K56" s="34">
         <v>44461.0</v>
       </c>
-      <c r="L56" s="14"/>
+      <c r="L56" s="45"/>
       <c r="M56" s="25" t="s">
         <v>20</v>
       </c>
       <c r="N56" s="22" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O56" s="35" t="s">
         <v>322</v>
@@ -18096,65 +18131,65 @@
       <c r="AB56" s="33"/>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="B57" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>339</v>
+      <c r="C57" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>524</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="14">
-        <v>43560.0</v>
+      <c r="K57" s="34">
+        <v>44461.0</v>
       </c>
       <c r="L57" s="14"/>
-      <c r="M57" s="12" t="s">
+      <c r="M57" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O57" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
+      <c r="N57" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="O57" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>524</v>
+        <v>525</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>525</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>526</v>
+        <v>339</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>27</v>
@@ -18163,21 +18198,19 @@
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="24" t="s">
-        <v>527</v>
-      </c>
+      <c r="J58" s="12"/>
       <c r="K58" s="14">
-        <v>44790.0</v>
-      </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="22" t="s">
+        <v>43560.0</v>
+      </c>
+      <c r="L58" s="14"/>
+      <c r="M58" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O58" s="15" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="O58" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
@@ -18195,16 +18228,16 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>530</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>27</v>
@@ -18254,7 +18287,7 @@
         <v>534</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>51</v>
+        <v>397</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>27</v>
@@ -18263,18 +18296,22 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
+      <c r="J60" s="24" t="s">
+        <v>535</v>
+      </c>
       <c r="K60" s="14">
-        <v>44797.0</v>
+        <v>44790.0</v>
       </c>
       <c r="L60" s="13"/>
-      <c r="M60" s="12" t="s">
+      <c r="M60" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N60" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O60" s="13"/>
+      <c r="O60" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
@@ -18291,16 +18328,16 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>335</v>
+        <v>51</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>27</v>
@@ -18309,22 +18346,18 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="24" t="s">
-        <v>538</v>
-      </c>
+      <c r="J61" s="13"/>
       <c r="K61" s="14">
-        <v>44790.0</v>
+        <v>44797.0</v>
       </c>
       <c r="L61" s="13"/>
-      <c r="M61" s="22" t="s">
+      <c r="M61" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N61" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O61" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="O61" s="13"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
@@ -18343,14 +18376,14 @@
       <c r="A62" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="21" t="s">
         <v>540</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>541</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>27</v>
@@ -18358,20 +18391,22 @@
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="12"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="24" t="s">
+        <v>542</v>
+      </c>
       <c r="K62" s="14">
-        <v>43560.0</v>
-      </c>
-      <c r="L62" s="14"/>
-      <c r="M62" s="12" t="s">
+        <v>44790.0</v>
+      </c>
+      <c r="L62" s="13"/>
+      <c r="M62" s="22" t="s">
         <v>20</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O62" s="17" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
@@ -18389,16 +18424,16 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="B63" s="21" t="s">
         <v>543</v>
       </c>
+      <c r="B63" s="16" t="s">
+        <v>544</v>
+      </c>
       <c r="C63" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>379</v>
+        <v>51</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>27</v>
@@ -18406,20 +18441,20 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="13"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="12"/>
       <c r="K63" s="14">
-        <v>44587.0</v>
-      </c>
-      <c r="L63" s="13"/>
+        <v>43560.0</v>
+      </c>
+      <c r="L63" s="14"/>
       <c r="M63" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="O63" s="35" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="O63" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="P63" s="13"/>
       <c r="Q63" s="13"/>
@@ -18437,16 +18472,16 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="B64" s="12" t="s">
         <v>546</v>
       </c>
+      <c r="B64" s="21" t="s">
+        <v>547</v>
+      </c>
       <c r="C64" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>27</v>
@@ -18454,20 +18489,20 @@
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+      <c r="I64" s="12"/>
       <c r="J64" s="13"/>
       <c r="K64" s="14">
-        <v>44601.0</v>
+        <v>44587.0</v>
       </c>
       <c r="L64" s="13"/>
       <c r="M64" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O64" s="15" t="s">
-        <v>47</v>
+        <v>384</v>
+      </c>
+      <c r="O64" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
@@ -18485,16 +18520,16 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="B65" s="21" t="s">
         <v>549</v>
       </c>
+      <c r="B65" s="12" t="s">
+        <v>550</v>
+      </c>
       <c r="C65" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>27</v>
@@ -18503,21 +18538,19 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="24" t="s">
-        <v>551</v>
-      </c>
+      <c r="J65" s="13"/>
       <c r="K65" s="14">
-        <v>44790.0</v>
+        <v>44601.0</v>
       </c>
       <c r="L65" s="13"/>
-      <c r="M65" s="22" t="s">
+      <c r="M65" s="12" t="s">
         <v>20</v>
       </c>
       <c r="N65" s="12" t="s">
         <v>46</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="P65" s="13"/>
       <c r="Q65" s="13"/>
@@ -18584,19 +18617,220 @@
       <c r="AB66" s="13"/>
     </row>
     <row r="67">
-      <c r="B67" s="18"/>
+      <c r="A67" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="K67" s="14">
+        <v>44790.0</v>
+      </c>
+      <c r="L67" s="13"/>
+      <c r="M67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="13"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
     </row>
     <row r="68">
-      <c r="B68" s="18"/>
+      <c r="A68" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="14">
+        <v>44856.0</v>
+      </c>
+      <c r="L68" s="13"/>
+      <c r="M68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="13"/>
     </row>
     <row r="69">
+      <c r="A69" s="12" t="s">
+        <v>563</v>
+      </c>
       <c r="B69" s="18"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="14">
+        <v>44856.0</v>
+      </c>
+      <c r="L69" s="13"/>
+      <c r="M69" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="13"/>
     </row>
     <row r="70">
+      <c r="A70" s="12" t="s">
+        <v>564</v>
+      </c>
       <c r="B70" s="18"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="14">
+        <v>44856.0</v>
+      </c>
+      <c r="L70" s="13"/>
+      <c r="M70" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="13"/>
     </row>
     <row r="71">
+      <c r="A71" s="12" t="s">
+        <v>565</v>
+      </c>
       <c r="B71" s="18"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="14">
+        <v>44856.0</v>
+      </c>
+      <c r="L71" s="13"/>
+      <c r="M71" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="13"/>
     </row>
     <row r="72">
       <c r="B72" s="18"/>
@@ -21301,12 +21535,12 @@
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D6 G1:AB6 E2:E87 F2:F6 A9:A41 B9:D87 F9:I87 J9:J62 K9:AB87 A43:A87 J64:J87">
+  <conditionalFormatting sqref="A1:D6 G1:AB6 E2:E87 F2:F6 A9:A42 B9:D87 F9:I87 J9:J63 K9:AB87 A44:A87 J65:J87">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M1="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D6 G1:AB6 E2:E66 F2:F6 A9:D39 F9:L39 M9:N41 O9:AB39 D43:D45 D51:D52">
+  <conditionalFormatting sqref="A1:D6 G1:AB6 E2:E67 F2:F6 A9:D40 F9:L40 M9:N42 O9:AB40 D44:D46 D52:D53">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M1="changed"</formula>
     </cfRule>
@@ -21328,70 +21562,70 @@
     <hyperlink r:id="rId14" ref="O12"/>
     <hyperlink r:id="rId15" ref="O13"/>
     <hyperlink r:id="rId16" ref="O14"/>
-    <hyperlink r:id="rId17" ref="O15"/>
-    <hyperlink r:id="rId18" ref="O16"/>
-    <hyperlink r:id="rId19" ref="O17"/>
-    <hyperlink r:id="rId20" ref="O18"/>
-    <hyperlink r:id="rId21" ref="J19"/>
-    <hyperlink r:id="rId22" ref="O19"/>
-    <hyperlink r:id="rId23" ref="O20"/>
-    <hyperlink r:id="rId24" ref="O21"/>
-    <hyperlink r:id="rId25" ref="O22"/>
-    <hyperlink r:id="rId26" ref="J23"/>
-    <hyperlink r:id="rId27" ref="O23"/>
-    <hyperlink r:id="rId28" ref="O24"/>
-    <hyperlink r:id="rId29" ref="O25"/>
-    <hyperlink r:id="rId30" ref="J26"/>
-    <hyperlink r:id="rId31" ref="O26"/>
-    <hyperlink r:id="rId32" ref="O27"/>
-    <hyperlink r:id="rId33" ref="O28"/>
-    <hyperlink r:id="rId34" ref="J29"/>
-    <hyperlink r:id="rId35" ref="O29"/>
-    <hyperlink r:id="rId36" ref="J30"/>
-    <hyperlink r:id="rId37" ref="O30"/>
-    <hyperlink r:id="rId38" ref="O31"/>
-    <hyperlink r:id="rId39" ref="O32"/>
-    <hyperlink r:id="rId40" ref="O33"/>
-    <hyperlink r:id="rId41" ref="J34"/>
-    <hyperlink r:id="rId42" ref="O34"/>
-    <hyperlink r:id="rId43" ref="J35"/>
-    <hyperlink r:id="rId44" ref="O35"/>
-    <hyperlink r:id="rId45" ref="J36"/>
-    <hyperlink r:id="rId46" ref="O36"/>
-    <hyperlink r:id="rId47" ref="O37"/>
-    <hyperlink r:id="rId48" ref="O38"/>
-    <hyperlink r:id="rId49" ref="O39"/>
-    <hyperlink r:id="rId50" ref="J40"/>
-    <hyperlink r:id="rId51" ref="O40"/>
-    <hyperlink r:id="rId52" ref="J41"/>
-    <hyperlink r:id="rId53" ref="O41"/>
-    <hyperlink r:id="rId54" ref="O42"/>
-    <hyperlink r:id="rId55" ref="O43"/>
-    <hyperlink r:id="rId56" ref="O44"/>
-    <hyperlink r:id="rId57" ref="O45"/>
-    <hyperlink r:id="rId58" ref="O46"/>
-    <hyperlink r:id="rId59" ref="O47"/>
-    <hyperlink r:id="rId60" ref="O48"/>
-    <hyperlink r:id="rId61" ref="O49"/>
-    <hyperlink r:id="rId62" ref="O50"/>
-    <hyperlink r:id="rId63" ref="O51"/>
-    <hyperlink r:id="rId64" ref="O52"/>
-    <hyperlink r:id="rId65" ref="O55"/>
-    <hyperlink r:id="rId66" ref="O56"/>
-    <hyperlink r:id="rId67" ref="O57"/>
-    <hyperlink r:id="rId68" ref="J58"/>
-    <hyperlink r:id="rId69" ref="O58"/>
-    <hyperlink r:id="rId70" ref="J59"/>
-    <hyperlink r:id="rId71" ref="O59"/>
-    <hyperlink r:id="rId72" ref="J61"/>
-    <hyperlink r:id="rId73" ref="O61"/>
-    <hyperlink r:id="rId74" ref="O62"/>
-    <hyperlink r:id="rId75" ref="O63"/>
-    <hyperlink r:id="rId76" ref="O64"/>
-    <hyperlink r:id="rId77" ref="J65"/>
-    <hyperlink r:id="rId78" ref="O65"/>
-    <hyperlink r:id="rId79" ref="J66"/>
-    <hyperlink r:id="rId80" ref="O66"/>
+    <hyperlink r:id="rId17" ref="O16"/>
+    <hyperlink r:id="rId18" ref="O17"/>
+    <hyperlink r:id="rId19" ref="O18"/>
+    <hyperlink r:id="rId20" ref="O19"/>
+    <hyperlink r:id="rId21" ref="J20"/>
+    <hyperlink r:id="rId22" ref="O20"/>
+    <hyperlink r:id="rId23" ref="O21"/>
+    <hyperlink r:id="rId24" ref="O22"/>
+    <hyperlink r:id="rId25" ref="O23"/>
+    <hyperlink r:id="rId26" ref="J24"/>
+    <hyperlink r:id="rId27" ref="O24"/>
+    <hyperlink r:id="rId28" ref="O25"/>
+    <hyperlink r:id="rId29" ref="O26"/>
+    <hyperlink r:id="rId30" ref="J27"/>
+    <hyperlink r:id="rId31" ref="O27"/>
+    <hyperlink r:id="rId32" ref="O28"/>
+    <hyperlink r:id="rId33" ref="O29"/>
+    <hyperlink r:id="rId34" ref="J30"/>
+    <hyperlink r:id="rId35" ref="O30"/>
+    <hyperlink r:id="rId36" ref="J31"/>
+    <hyperlink r:id="rId37" ref="O31"/>
+    <hyperlink r:id="rId38" ref="O32"/>
+    <hyperlink r:id="rId39" ref="O33"/>
+    <hyperlink r:id="rId40" ref="O34"/>
+    <hyperlink r:id="rId41" ref="J35"/>
+    <hyperlink r:id="rId42" ref="O35"/>
+    <hyperlink r:id="rId43" ref="J36"/>
+    <hyperlink r:id="rId44" ref="O36"/>
+    <hyperlink r:id="rId45" ref="J37"/>
+    <hyperlink r:id="rId46" ref="O37"/>
+    <hyperlink r:id="rId47" ref="O38"/>
+    <hyperlink r:id="rId48" ref="O39"/>
+    <hyperlink r:id="rId49" ref="O40"/>
+    <hyperlink r:id="rId50" ref="J41"/>
+    <hyperlink r:id="rId51" ref="O41"/>
+    <hyperlink r:id="rId52" ref="J42"/>
+    <hyperlink r:id="rId53" ref="O42"/>
+    <hyperlink r:id="rId54" ref="O43"/>
+    <hyperlink r:id="rId55" ref="O44"/>
+    <hyperlink r:id="rId56" ref="O45"/>
+    <hyperlink r:id="rId57" ref="O46"/>
+    <hyperlink r:id="rId58" ref="O47"/>
+    <hyperlink r:id="rId59" ref="O48"/>
+    <hyperlink r:id="rId60" ref="O49"/>
+    <hyperlink r:id="rId61" ref="O50"/>
+    <hyperlink r:id="rId62" ref="O51"/>
+    <hyperlink r:id="rId63" ref="O52"/>
+    <hyperlink r:id="rId64" ref="O53"/>
+    <hyperlink r:id="rId65" ref="O56"/>
+    <hyperlink r:id="rId66" ref="O57"/>
+    <hyperlink r:id="rId67" ref="O58"/>
+    <hyperlink r:id="rId68" ref="J59"/>
+    <hyperlink r:id="rId69" ref="O59"/>
+    <hyperlink r:id="rId70" ref="J60"/>
+    <hyperlink r:id="rId71" ref="O60"/>
+    <hyperlink r:id="rId72" ref="J62"/>
+    <hyperlink r:id="rId73" ref="O62"/>
+    <hyperlink r:id="rId74" ref="O63"/>
+    <hyperlink r:id="rId75" ref="O64"/>
+    <hyperlink r:id="rId76" ref="O65"/>
+    <hyperlink r:id="rId77" ref="J66"/>
+    <hyperlink r:id="rId78" ref="O66"/>
+    <hyperlink r:id="rId79" ref="J67"/>
+    <hyperlink r:id="rId80" ref="O67"/>
   </hyperlinks>
   <drawing r:id="rId81"/>
 </worksheet>

--- a/documentation-generator/vocab_csv/toms.xlsx
+++ b/documentation-generator/vocab_csv/toms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="568">
   <si>
     <t>Term</t>
   </si>
@@ -2066,13 +2066,19 @@
     <t>A procedure or process that reviews the correctness and validity of other measures and processes</t>
   </si>
   <si>
+    <t>https://www.w3.org/2022/10/19-dpvcg-minutes.html</t>
+  </si>
+  <si>
     <t>ReviewImpactAssessment</t>
   </si>
   <si>
-    <t>ReviewImpactAssessmentAdequacy</t>
-  </si>
-  <si>
-    <t>ReviewImpactAssessmentConformance</t>
+    <t>Review Impact Assessment</t>
+  </si>
+  <si>
+    <t>Procedures to review impact assessments in terms of continued validity, adequacy for intended purposes, and conformance of processes with findings</t>
+  </si>
+  <si>
+    <t>dpv:ReviewProcedure,dpv:ImpactAssessment</t>
   </si>
 </sst>
 </file>
@@ -18697,7 +18703,9 @@
       <c r="N68" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="O68" s="13"/>
+      <c r="O68" s="15" t="s">
+        <v>563</v>
+      </c>
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
@@ -18714,11 +18722,17 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
+        <v>564</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>567</v>
+      </c>
       <c r="E69" s="12" t="s">
         <v>27</v>
       </c>
@@ -18737,7 +18751,9 @@
       <c r="N69" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="O69" s="13"/>
+      <c r="O69" s="15" t="s">
+        <v>563</v>
+      </c>
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
@@ -18753,84 +18769,14 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70">
-      <c r="A70" s="12" t="s">
-        <v>564</v>
-      </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="14">
-        <v>44856.0</v>
-      </c>
-      <c r="L70" s="13"/>
-      <c r="M70" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
+      <c r="C70" s="39"/>
+      <c r="K70" s="14"/>
     </row>
     <row r="71">
-      <c r="A71" s="12" t="s">
-        <v>565</v>
-      </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="14">
-        <v>44856.0</v>
-      </c>
-      <c r="L71" s="13"/>
-      <c r="M71" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N71" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="13"/>
-      <c r="AA71" s="13"/>
-      <c r="AB71" s="13"/>
+      <c r="C71" s="39"/>
+      <c r="K71" s="14"/>
     </row>
     <row r="72">
       <c r="B72" s="18"/>
@@ -21626,7 +21572,9 @@
     <hyperlink r:id="rId78" ref="O66"/>
     <hyperlink r:id="rId79" ref="J67"/>
     <hyperlink r:id="rId80" ref="O67"/>
+    <hyperlink r:id="rId81" ref="O68"/>
+    <hyperlink r:id="rId82" ref="O69"/>
   </hyperlinks>
-  <drawing r:id="rId81"/>
+  <drawing r:id="rId83"/>
 </worksheet>
 </file>
--- a/documentation-generator/vocab_csv/toms.xlsx
+++ b/documentation-generator/vocab_csv/toms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="572">
   <si>
     <t>Term</t>
   </si>
@@ -2079,6 +2079,18 @@
   </si>
   <si>
     <t>dpv:ReviewProcedure,dpv:ImpactAssessment</t>
+  </si>
+  <si>
+    <t>ReviewPolicies</t>
+  </si>
+  <si>
+    <t>Review Policies</t>
+  </si>
+  <si>
+    <t>Procedures to review policies in terms of continued validity, adequacy for intended purposes, and conformance of processes with findings</t>
+  </si>
+  <si>
+    <t>dpv:ReviewProcedure,dpv:Policy</t>
   </si>
 </sst>
 </file>
@@ -18769,9 +18781,44 @@
       <c r="AB69" s="13"/>
     </row>
     <row r="70">
-      <c r="B70" s="18"/>
-      <c r="C70" s="39"/>
+      <c r="A70" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="14"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="13"/>
     </row>
     <row r="71">
       <c r="B71" s="18"/>

--- a/documentation-generator/vocab_csv/toms.xlsx
+++ b/documentation-generator/vocab_csv/toms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="571">
   <si>
     <t>Term</t>
   </si>
@@ -1394,10 +1394,10 @@
     <t>dpv:AuthorisationProcedure</t>
   </si>
   <si>
-    <t>CybersecurityAssessments</t>
-  </si>
-  <si>
-    <t>Cybersecurity Assessments</t>
+    <t>CybersecurityAssessment</t>
+  </si>
+  <si>
+    <t>Cybersecurity Assessment</t>
   </si>
   <si>
     <t>Assessment of cybersecurity capabilities in terms of vulnerabilities and effectiveness of controls</t>
@@ -1443,13 +1443,13 @@
     <t>For specific role-based data processing agreements, see concepts for Processors and JointDataController agreements.</t>
   </si>
   <si>
-    <t>DataProcessingRecords</t>
-  </si>
-  <si>
-    <t>Data Processing Records</t>
-  </si>
-  <si>
-    <t>Records of personal data processing, whether ex-ante or ex-post</t>
+    <t>DataProcessingRecord</t>
+  </si>
+  <si>
+    <t>Data Processing Record</t>
+  </si>
+  <si>
+    <t>Record of personal data processing, whether ex-ante or ex-post</t>
   </si>
   <si>
     <t>dpv:RecordsOfActivities</t>
@@ -1839,9 +1839,6 @@
     <t>A ROPA is a document maintained by Data Controllers detailing processing activities carried out under their responsibility</t>
   </si>
   <si>
-    <t>dpv:DataProcessingRecords</t>
-  </si>
-  <si>
     <t>Tied to compliance processes and documents, decide how to specify those</t>
   </si>
   <si>
@@ -1908,10 +1905,10 @@
     <t>A seal or a mark indicating proof of certification to some certification or standard</t>
   </si>
   <si>
-    <t>SecurityAssessments</t>
-  </si>
-  <si>
-    <t>Security Assessments</t>
+    <t>SecurityAssessment</t>
+  </si>
+  <si>
+    <t>Security Assessment</t>
   </si>
   <si>
     <t>Assessment of security intended to identity gaps, vulnerabilities, risks, and effectiveness of controls</t>
@@ -17915,7 +17912,7 @@
         <v>503</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>504</v>
+        <v>358</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>27</v>
@@ -17924,7 +17921,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="14">
@@ -17956,13 +17953,13 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="C53" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>508</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>51</v>
@@ -18004,13 +18001,13 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="C54" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>511</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>335</v>
@@ -18023,7 +18020,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K54" s="14">
         <v>44791.0</v>
@@ -18052,16 +18049,16 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="C55" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="D55" s="12" t="s">
         <v>515</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>516</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>27</v>
@@ -18071,7 +18068,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K55" s="14">
         <v>44791.0</v>
@@ -18100,13 +18097,13 @@
     </row>
     <row r="56">
       <c r="A56" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>517</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>517</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>518</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>51</v>
@@ -18118,7 +18115,7 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J56" s="44"/>
       <c r="K56" s="34">
@@ -18129,7 +18126,7 @@
         <v>20</v>
       </c>
       <c r="N56" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O56" s="35" t="s">
         <v>322</v>
@@ -18150,16 +18147,16 @@
     </row>
     <row r="57">
       <c r="A57" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B57" s="32" t="s">
         <v>521</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="C57" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="D57" s="25" t="s">
         <v>523</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>524</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>27</v>
@@ -18177,7 +18174,7 @@
         <v>20</v>
       </c>
       <c r="N57" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O57" s="35" t="s">
         <v>322</v>
@@ -18198,13 +18195,13 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>525</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>526</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>339</v>
@@ -18246,16 +18243,16 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>529</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>530</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>27</v>
@@ -18265,7 +18262,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K59" s="14">
         <v>44790.0</v>
@@ -18296,13 +18293,13 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="12" t="s">
         <v>533</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>534</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>397</v>
@@ -18315,7 +18312,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K60" s="14">
         <v>44790.0</v>
@@ -18346,13 +18343,13 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="12" t="s">
         <v>537</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>538</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>51</v>
@@ -18392,13 +18389,13 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="C62" s="12" t="s">
         <v>540</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>541</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>335</v>
@@ -18411,7 +18408,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K62" s="14">
         <v>44790.0</v>
@@ -18442,13 +18439,13 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="C63" s="12" t="s">
         <v>544</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>545</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>51</v>
@@ -18490,13 +18487,13 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="C64" s="12" t="s">
         <v>547</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>548</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>383</v>
@@ -18538,13 +18535,13 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>550</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>551</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>383</v>
@@ -18586,13 +18583,13 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="C66" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>554</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>335</v>
@@ -18605,7 +18602,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K66" s="14">
         <v>44790.0</v>
@@ -18636,13 +18633,13 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="C67" s="12" t="s">
         <v>557</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>558</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>335</v>
@@ -18655,7 +18652,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K67" s="14">
         <v>44790.0</v>
@@ -18686,13 +18683,13 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="C68" s="12" t="s">
         <v>561</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>562</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>51</v>
@@ -18716,7 +18713,7 @@
         <v>368</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
@@ -18734,16 +18731,16 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B69" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="C69" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="D69" s="12" t="s">
         <v>566</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>567</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>27</v>
@@ -18764,7 +18761,7 @@
         <v>368</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
@@ -18782,16 +18779,16 @@
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="C70" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="D70" s="12" t="s">
         <v>570</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>571</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>

--- a/documentation-generator/vocab_csv/toms.xlsx
+++ b/documentation-generator/vocab_csv/toms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="631">
   <si>
     <t>Term</t>
   </si>
@@ -1859,10 +1859,10 @@
     <t>Records of activities within some context such as maintainence tasks or governance functions</t>
   </si>
   <si>
-    <t>RegisterOfProcessingActivities</t>
-  </si>
-  <si>
-    <t>Register of Processing Activities</t>
+    <t>ROPA</t>
+  </si>
+  <si>
+    <t>Records of Processing Activities</t>
   </si>
   <si>
     <t>A ROPA is a document maintained by Data Controllers detailing processing activities carried out under their responsibility</t>
@@ -2107,6 +2107,162 @@
     <t>dpv:ReviewProcedure,dpv:ImpactAssessment</t>
   </si>
   <si>
+    <t>CommercialConfidentialityAgreement</t>
+  </si>
+  <si>
+    <t>Commercial Confidentiality Agreement</t>
+  </si>
+  <si>
+    <t>Agreements that enforce commercial confidentiality including business, professional and company secrets</t>
+  </si>
+  <si>
+    <t>DGA 3.1.a</t>
+  </si>
+  <si>
+    <t>ConsentManagement</t>
+  </si>
+  <si>
+    <t>Consent Management</t>
+  </si>
+  <si>
+    <t>Methods to obtain and withdraw consent or permission to process data</t>
+  </si>
+  <si>
+    <t>dpv:DataSubjectRightsManagement</t>
+  </si>
+  <si>
+    <t>DGA 12.n</t>
+  </si>
+  <si>
+    <t>DataAssetList</t>
+  </si>
+  <si>
+    <t>DataBreachNotification</t>
+  </si>
+  <si>
+    <t>Data Breach Notification</t>
+  </si>
+  <si>
+    <t>Notification information a data breach or unauthorised transfer, access, use, or modification of data</t>
+  </si>
+  <si>
+    <t>DGA 12.k, DGA 21.5 GDPR 33, GDPR 34</t>
+  </si>
+  <si>
+    <t>DataDeletionPolicy</t>
+  </si>
+  <si>
+    <t>DataExchangeMethod</t>
+  </si>
+  <si>
+    <t>DataLocationPolicy</t>
+  </si>
+  <si>
+    <t>DataRestorationPolicy</t>
+  </si>
+  <si>
+    <t>DataReusePolicy</t>
+  </si>
+  <si>
+    <t>Data Reuse Policy</t>
+  </si>
+  <si>
+    <t>A Policy to govern data re-use</t>
+  </si>
+  <si>
+    <t>DataStoragePolicy</t>
+  </si>
+  <si>
+    <t>DataSubjectRightsManagement</t>
+  </si>
+  <si>
+    <t>Data Subject Rights Management</t>
+  </si>
+  <si>
+    <t>Methods to facilitate the exercising of data subjects' rights</t>
+  </si>
+  <si>
+    <t>dpv:RightsManagement</t>
+  </si>
+  <si>
+    <t>DGA 12.m</t>
+  </si>
+  <si>
+    <t>DataTransferNotice</t>
+  </si>
+  <si>
+    <t>Data Transfer Notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notice for the legal entity for the transfer of its data </t>
+  </si>
+  <si>
+    <t>DGA 5.9</t>
+  </si>
+  <si>
+    <t>DGA proposals</t>
+  </si>
+  <si>
+    <t>EnforceTransferControl</t>
+  </si>
+  <si>
+    <t>Enforce Transfer Control</t>
+  </si>
+  <si>
+    <t>Purposes associated with conducting or enforcing transfer control so as to limit the transfer of data</t>
+  </si>
+  <si>
+    <t>IntellectualPropertyRightsManagement</t>
+  </si>
+  <si>
+    <t>Intellectual Property Rights Management</t>
+  </si>
+  <si>
+    <t>Management of Intellectual Property Rights with a view to identify and safeguard and enforce them</t>
+  </si>
+  <si>
+    <t>DGA 3.1.c</t>
+  </si>
+  <si>
+    <t>LegalMeasure</t>
+  </si>
+  <si>
+    <t>Legal Measure</t>
+  </si>
+  <si>
+    <t>Legally-recognised agreements, e.g., contracts</t>
+  </si>
+  <si>
+    <t>Move things such as contracts which are legally recognised or enforceable under this</t>
+  </si>
+  <si>
+    <t>DGA 12.j</t>
+  </si>
+  <si>
+    <t>Licence</t>
+  </si>
+  <si>
+    <t>Document which states the conditions for usage of data</t>
+  </si>
+  <si>
+    <t>dpv:ContractualTerms</t>
+  </si>
+  <si>
+    <t>odrl:Offer</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>DGA 2.10</t>
+  </si>
+  <si>
+    <t>PermissionManagement</t>
+  </si>
+  <si>
+    <t>Permission Management</t>
+  </si>
+  <si>
     <t>ReviewPolicies</t>
   </si>
   <si>
@@ -2119,16 +2275,22 @@
     <t>dpv:ReviewProcedure,dpv:Policy</t>
   </si>
   <si>
-    <t>DataDeletionPolicy</t>
-  </si>
-  <si>
-    <t>DataStoragePolicy</t>
-  </si>
-  <si>
-    <t>DataLocationPolicy</t>
-  </si>
-  <si>
-    <t>DataRestorationPolicy</t>
+    <t>StatisticalConfidentialityAgreement</t>
+  </si>
+  <si>
+    <t>SecureProcessingEnvironment</t>
+  </si>
+  <si>
+    <t>Secure Processing Environment</t>
+  </si>
+  <si>
+    <t>A physical or virtual environment supported by organisational means that integrates security and compliance requirements and allows supervising data processing actions</t>
+  </si>
+  <si>
+    <t>dpv:Technology</t>
+  </si>
+  <si>
+    <t>DGA 2.20</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2233,11 +2395,16 @@
       <name val="&quot;Arial&quot;"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FF0000FF"/>
       <name val="&quot;Arial&quot;"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2254,6 +2421,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
         <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2307,7 +2480,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2425,9 +2598,6 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -2435,7 +2605,49 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15565,6 +15777,9 @@
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
       <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
@@ -15615,6 +15830,9 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
@@ -15665,6 +15883,9 @@
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
@@ -15715,6 +15936,9 @@
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
@@ -15763,6 +15987,9 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
@@ -15811,6 +16038,9 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
@@ -15859,6 +16089,9 @@
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
@@ -15909,6 +16142,9 @@
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
@@ -15957,6 +16193,9 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
@@ -16005,6 +16244,9 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
@@ -16053,6 +16295,9 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
@@ -16101,6 +16346,9 @@
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
@@ -16149,6 +16397,9 @@
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
@@ -16195,6 +16446,9 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
@@ -16243,6 +16497,9 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
@@ -16291,6 +16548,9 @@
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
@@ -16339,6 +16599,9 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
@@ -16387,6 +16650,9 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
@@ -16437,6 +16703,9 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
@@ -16487,6 +16756,9 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
@@ -16537,6 +16809,9 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
@@ -16585,6 +16860,9 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
@@ -16635,6 +16913,9 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
@@ -16683,6 +16964,9 @@
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
@@ -16731,6 +17015,9 @@
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
@@ -16781,6 +17068,9 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="25" t="s">
@@ -16831,6 +17121,9 @@
       <c r="Z28" s="33"/>
       <c r="AA28" s="33"/>
       <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
@@ -16881,6 +17174,9 @@
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
@@ -16931,6 +17227,9 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
@@ -16981,6 +17280,9 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
@@ -17029,6 +17331,9 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
@@ -17079,6 +17384,9 @@
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
@@ -17127,6 +17435,9 @@
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
@@ -17177,6 +17488,9 @@
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
@@ -17227,6 +17541,9 @@
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
       <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
@@ -17277,6 +17594,9 @@
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
@@ -17325,6 +17645,9 @@
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
@@ -17373,6 +17696,9 @@
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
     </row>
     <row r="40">
       <c r="A40" s="25" t="s">
@@ -17421,6 +17747,9 @@
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
@@ -17471,6 +17800,9 @@
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
       <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
@@ -17521,6 +17853,9 @@
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
@@ -17569,6 +17904,9 @@
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
@@ -17617,6 +17955,9 @@
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
@@ -17665,6 +18006,9 @@
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
@@ -17713,6 +18057,9 @@
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
@@ -17761,6 +18108,9 @@
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
@@ -17809,6 +18159,9 @@
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
     </row>
     <row r="49">
       <c r="A49" s="25" t="s">
@@ -17857,6 +18210,9 @@
       <c r="Z49" s="33"/>
       <c r="AA49" s="33"/>
       <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
@@ -17907,6 +18263,9 @@
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
@@ -17955,12 +18314,15 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="21" t="s">
         <v>504</v>
       </c>
       <c r="C52" s="40" t="s">
@@ -17982,29 +18344,20 @@
       <c r="K52" s="14">
         <v>44447.0</v>
       </c>
-      <c r="L52" s="13"/>
+      <c r="L52" s="14">
+        <v>45162.0</v>
+      </c>
       <c r="M52" s="12" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N52" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="O52" s="35" t="s">
+      <c r="O52" s="24" t="s">
         <v>324</v>
       </c>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
@@ -18053,6 +18406,9 @@
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
       <c r="AB53" s="13"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
@@ -18101,6 +18457,9 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="13"/>
       <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
@@ -18149,12 +18508,15 @@
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
       <c r="AB55" s="13"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13"/>
     </row>
     <row r="56">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="42" t="s">
         <v>518</v>
       </c>
       <c r="C56" s="25" t="s">
@@ -18172,11 +18534,11 @@
       <c r="I56" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="J56" s="44"/>
+      <c r="J56" s="43"/>
       <c r="K56" s="34">
         <v>44461.0</v>
       </c>
-      <c r="L56" s="45"/>
+      <c r="L56" s="44"/>
       <c r="M56" s="25" t="s">
         <v>20</v>
       </c>
@@ -18199,6 +18561,9 @@
       <c r="Z56" s="33"/>
       <c r="AA56" s="33"/>
       <c r="AB56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="33"/>
     </row>
     <row r="57">
       <c r="A57" s="25" t="s">
@@ -18247,6 +18612,9 @@
       <c r="Z57" s="33"/>
       <c r="AA57" s="33"/>
       <c r="AB57" s="33"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="33"/>
+      <c r="AE57" s="33"/>
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
@@ -18295,6 +18663,9 @@
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
       <c r="AB58" s="13"/>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="13"/>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
@@ -18345,6 +18716,9 @@
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
@@ -18395,6 +18769,9 @@
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
       <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
@@ -18441,6 +18818,9 @@
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
       <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
@@ -18491,6 +18871,9 @@
       <c r="Z62" s="13"/>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
@@ -18539,6 +18922,9 @@
       <c r="Z63" s="13"/>
       <c r="AA63" s="13"/>
       <c r="AB63" s="13"/>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="13"/>
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
@@ -18587,6 +18973,9 @@
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
       <c r="AB64" s="13"/>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="13"/>
+      <c r="AE64" s="13"/>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
@@ -18635,6 +19024,9 @@
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
       <c r="AB65" s="13"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="13"/>
+      <c r="AE65" s="13"/>
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
@@ -18685,6 +19077,9 @@
       <c r="Z66" s="13"/>
       <c r="AA66" s="13"/>
       <c r="AB66" s="13"/>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="13"/>
+      <c r="AE66" s="13"/>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
@@ -18735,6 +19130,9 @@
       <c r="Z67" s="13"/>
       <c r="AA67" s="13"/>
       <c r="AB67" s="13"/>
+      <c r="AC67" s="13"/>
+      <c r="AD67" s="13"/>
+      <c r="AE67" s="13"/>
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
@@ -18783,6 +19181,9 @@
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
       <c r="AB68" s="13"/>
+      <c r="AC68" s="13"/>
+      <c r="AD68" s="13"/>
+      <c r="AE68" s="13"/>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
@@ -18831,61 +19232,109 @@
       <c r="Z69" s="13"/>
       <c r="AA69" s="13"/>
       <c r="AB69" s="13"/>
+      <c r="AC69" s="13"/>
+      <c r="AD69" s="13"/>
+      <c r="AE69" s="13"/>
     </row>
     <row r="70">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C70" s="47" t="s">
         <v>571</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="13"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
       <c r="M70" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N70" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="48"/>
+      <c r="X70" s="48"/>
+      <c r="Y70" s="48"/>
+      <c r="Z70" s="48"/>
+      <c r="AA70" s="48"/>
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="48"/>
+      <c r="AD70" s="48"/>
+      <c r="AE70" s="48"/>
     </row>
     <row r="71">
-      <c r="B71" s="18"/>
-      <c r="C71" s="39"/>
-      <c r="K71" s="14"/>
+      <c r="A71" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="B71" s="50" t="s">
+        <v>574</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="50" t="s">
+        <v>577</v>
+      </c>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="52"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="52"/>
+      <c r="U71" s="52"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="52"/>
+      <c r="Y71" s="52"/>
+      <c r="Z71" s="52"/>
+      <c r="AA71" s="52"/>
+      <c r="AB71" s="52"/>
+      <c r="AC71" s="52"/>
+      <c r="AD71" s="52"/>
+      <c r="AE71" s="48"/>
     </row>
     <row r="72">
-      <c r="A72" s="12" t="s">
-        <v>573</v>
+      <c r="A72" s="53" t="s">
+        <v>578</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="53" t="s">
+        <v>51</v>
+      </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
@@ -18897,63 +19346,58 @@
       <c r="M72" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N72" s="46" t="s">
-        <v>135</v>
-      </c>
+      <c r="N72" s="13"/>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
-      <c r="AA72" s="13"/>
-      <c r="AB72" s="13"/>
     </row>
     <row r="73">
-      <c r="A73" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
+      <c r="A73" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="C73" s="55" t="s">
+        <v>581</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="56" t="s">
+        <v>582</v>
+      </c>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
       <c r="M73" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N73" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
-      <c r="AA73" s="13"/>
-      <c r="AB73" s="13"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="48"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="48"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="48"/>
+      <c r="W73" s="48"/>
+      <c r="X73" s="48"/>
+      <c r="Y73" s="48"/>
+      <c r="Z73" s="48"/>
+      <c r="AA73" s="48"/>
+      <c r="AB73" s="48"/>
+      <c r="AC73" s="48"/>
+      <c r="AD73" s="48"/>
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="13"/>
@@ -18969,31 +19413,22 @@
       <c r="M74" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N74" s="46" t="s">
+      <c r="N74" s="57" t="s">
         <v>135</v>
       </c>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
       <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
     </row>
     <row r="75">
-      <c r="A75" s="12" t="s">
-        <v>576</v>
+      <c r="A75" s="53" t="s">
+        <v>584</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
+      <c r="D75" s="53" t="s">
+        <v>44</v>
+      </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
@@ -19005,71 +19440,592 @@
       <c r="M75" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N75" s="46" t="s">
-        <v>135</v>
-      </c>
+      <c r="N75" s="13"/>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
-      <c r="AA75" s="13"/>
-      <c r="AB75" s="13"/>
     </row>
     <row r="76">
+      <c r="A76" s="12" t="s">
+        <v>585</v>
+      </c>
       <c r="B76" s="18"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N76" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
     </row>
     <row r="77">
+      <c r="A77" s="12" t="s">
+        <v>586</v>
+      </c>
       <c r="B77" s="18"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N77" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
     </row>
     <row r="78">
-      <c r="B78" s="18"/>
+      <c r="A78" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>588</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>589</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="N78" s="48"/>
+      <c r="O78" s="48"/>
+      <c r="P78" s="48"/>
+      <c r="Q78" s="48"/>
+      <c r="R78" s="48"/>
+      <c r="S78" s="48"/>
+      <c r="T78" s="48"/>
+      <c r="U78" s="48"/>
+      <c r="V78" s="48"/>
+      <c r="W78" s="48"/>
+      <c r="X78" s="48"/>
+      <c r="Y78" s="48"/>
+      <c r="Z78" s="48"/>
+      <c r="AA78" s="48"/>
+      <c r="AB78" s="48"/>
+      <c r="AC78" s="48"/>
+      <c r="AD78" s="48"/>
+      <c r="AE78" s="48"/>
     </row>
     <row r="79">
+      <c r="A79" s="53" t="s">
+        <v>587</v>
+      </c>
       <c r="B79" s="18"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
     </row>
     <row r="80">
+      <c r="A80" s="12" t="s">
+        <v>590</v>
+      </c>
       <c r="B80" s="18"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N80" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
     </row>
     <row r="81">
-      <c r="B81" s="18"/>
+      <c r="A81" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>592</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>593</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N81" s="48"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="48"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
+      <c r="T81" s="48"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="48"/>
+      <c r="W81" s="48"/>
+      <c r="X81" s="48"/>
+      <c r="Y81" s="48"/>
+      <c r="Z81" s="48"/>
+      <c r="AA81" s="48"/>
+      <c r="AB81" s="48"/>
+      <c r="AC81" s="48"/>
+      <c r="AD81" s="48"/>
+      <c r="AE81" s="48"/>
     </row>
     <row r="82">
-      <c r="B82" s="18"/>
+      <c r="A82" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="B82" s="48" t="s">
+        <v>597</v>
+      </c>
+      <c r="C82" s="55" t="s">
+        <v>598</v>
+      </c>
+      <c r="D82" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N82" s="48"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="48"/>
+      <c r="S82" s="48"/>
+      <c r="T82" s="48"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="48"/>
+      <c r="W82" s="48"/>
+      <c r="X82" s="48"/>
+      <c r="Y82" s="48"/>
+      <c r="Z82" s="48"/>
+      <c r="AA82" s="48"/>
+      <c r="AB82" s="48"/>
+      <c r="AC82" s="48"/>
+      <c r="AD82" s="48"/>
     </row>
     <row r="83">
+      <c r="A83" s="12" t="s">
+        <v>600</v>
+      </c>
       <c r="B83" s="18"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
     </row>
     <row r="84">
-      <c r="B84" s="18"/>
+      <c r="A84" s="48" t="s">
+        <v>601</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>602</v>
+      </c>
+      <c r="C84" s="55" t="s">
+        <v>603</v>
+      </c>
+      <c r="D84" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N84" s="48"/>
+      <c r="O84" s="48"/>
+      <c r="P84" s="48"/>
+      <c r="Q84" s="48"/>
+      <c r="R84" s="48"/>
+      <c r="S84" s="48"/>
+      <c r="T84" s="48"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="48"/>
+      <c r="W84" s="48"/>
+      <c r="X84" s="48"/>
+      <c r="Y84" s="48"/>
+      <c r="Z84" s="48"/>
+      <c r="AA84" s="48"/>
+      <c r="AB84" s="48"/>
+      <c r="AC84" s="48"/>
+      <c r="AD84" s="48"/>
     </row>
     <row r="85">
-      <c r="B85" s="18"/>
+      <c r="A85" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="46" t="s">
+        <v>607</v>
+      </c>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N85" s="48"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="48"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="48"/>
+      <c r="S85" s="48"/>
+      <c r="T85" s="48"/>
+      <c r="U85" s="48"/>
+      <c r="V85" s="48"/>
+      <c r="W85" s="48"/>
+      <c r="X85" s="48"/>
+      <c r="Y85" s="48"/>
+      <c r="Z85" s="48"/>
+      <c r="AA85" s="48"/>
+      <c r="AB85" s="48"/>
+      <c r="AC85" s="48"/>
+      <c r="AD85" s="48"/>
+      <c r="AE85" s="48"/>
     </row>
     <row r="86">
-      <c r="B86" s="18"/>
+      <c r="A86" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="B86" s="48" t="s">
+        <v>609</v>
+      </c>
+      <c r="C86" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="D86" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48" t="s">
+        <v>611</v>
+      </c>
+      <c r="J86" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N86" s="48"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="48"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="48"/>
+      <c r="S86" s="48"/>
+      <c r="T86" s="48"/>
+      <c r="U86" s="48"/>
+      <c r="V86" s="48"/>
+      <c r="W86" s="48"/>
+      <c r="X86" s="48"/>
+      <c r="Y86" s="48"/>
+      <c r="Z86" s="48"/>
+      <c r="AA86" s="48"/>
+      <c r="AB86" s="48"/>
+      <c r="AC86" s="48"/>
+      <c r="AD86" s="48"/>
     </row>
     <row r="87">
-      <c r="B87" s="18"/>
+      <c r="A87" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="B87" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>614</v>
+      </c>
+      <c r="D87" s="46" t="s">
+        <v>615</v>
+      </c>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="H87" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="I87" s="48"/>
+      <c r="J87" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N87" s="48"/>
+      <c r="O87" s="48"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="48"/>
+      <c r="S87" s="48"/>
+      <c r="T87" s="48"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="48"/>
+      <c r="W87" s="48"/>
+      <c r="X87" s="48"/>
+      <c r="Y87" s="48"/>
+      <c r="Z87" s="48"/>
+      <c r="AA87" s="48"/>
+      <c r="AB87" s="48"/>
+      <c r="AC87" s="48"/>
+      <c r="AD87" s="48"/>
     </row>
     <row r="88">
-      <c r="B88" s="18"/>
+      <c r="A88" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>575</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="48"/>
+      <c r="W88" s="48"/>
+      <c r="X88" s="48"/>
+      <c r="Y88" s="48"/>
+      <c r="Z88" s="48"/>
+      <c r="AA88" s="48"/>
+      <c r="AB88" s="48"/>
+      <c r="AC88" s="48"/>
+      <c r="AD88" s="48"/>
+      <c r="AE88" s="48"/>
     </row>
     <row r="89">
-      <c r="B89" s="18"/>
+      <c r="A89" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
     </row>
     <row r="90">
+      <c r="A90" s="53" t="s">
+        <v>625</v>
+      </c>
       <c r="B90" s="18"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
     </row>
     <row r="91">
-      <c r="B91" s="18"/>
+      <c r="A91" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="C91" s="54" t="s">
+        <v>628</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48" t="s">
+        <v>630</v>
+      </c>
+      <c r="K91" s="59"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="N91" s="48"/>
+      <c r="O91" s="48"/>
+      <c r="P91" s="48"/>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="48"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="48"/>
+      <c r="W91" s="48"/>
+      <c r="X91" s="48"/>
+      <c r="Y91" s="48"/>
+      <c r="Z91" s="48"/>
+      <c r="AA91" s="48"/>
+      <c r="AB91" s="48"/>
+      <c r="AC91" s="48"/>
+      <c r="AD91" s="48"/>
+      <c r="AE91" s="48"/>
     </row>
     <row r="92">
       <c r="B92" s="18"/>
@@ -21699,27 +22655,18 @@
     <row r="967">
       <c r="B967" s="18"/>
     </row>
-    <row r="968">
-      <c r="B968" s="18"/>
-    </row>
-    <row r="969">
-      <c r="B969" s="18"/>
-    </row>
-    <row r="970">
-      <c r="B970" s="18"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB200">
+  <conditionalFormatting sqref="A2:AE197">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D6 G1:AB6 E2:E87 F2:F6 A9:A42 B9:D87 F9:I87 J9:J63 K9:AB87 A44:A87 J65:J87">
+  <conditionalFormatting sqref="A1:Q200">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M1="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D6 G1:AB6 E2:E67 F2:F6 A9:D40 F9:L40 M9:N42 O9:AB40 D44:D46 D52:D53">
+  <conditionalFormatting sqref="A1:Q200">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M1="changed"</formula>
     </cfRule>
